--- a/techniqo/data_new_ticker/GRSE.xlsx
+++ b/techniqo/data_new_ticker/GRSE.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G477"/>
+  <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17081,6 +17081,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>189.8</v>
+      </c>
+      <c r="C478" t="n">
+        <v>193</v>
+      </c>
+      <c r="D478" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E478" t="n">
+        <v>187.65</v>
+      </c>
+      <c r="F478" t="n">
+        <v>211989</v>
+      </c>
+      <c r="G478" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>186</v>
+      </c>
+      <c r="C479" t="n">
+        <v>191.7</v>
+      </c>
+      <c r="D479" t="n">
+        <v>186</v>
+      </c>
+      <c r="E479" t="n">
+        <v>190.15</v>
+      </c>
+      <c r="F479" t="n">
+        <v>128706</v>
+      </c>
+      <c r="G479" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/GRSE.xlsx
+++ b/techniqo/data_new_ticker/GRSE.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G479"/>
+  <dimension ref="A1:G481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17131,6 +17131,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>190</v>
+      </c>
+      <c r="C480" t="n">
+        <v>190.45</v>
+      </c>
+      <c r="D480" t="n">
+        <v>181.1</v>
+      </c>
+      <c r="E480" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="F480" t="n">
+        <v>119171</v>
+      </c>
+      <c r="G480" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>184</v>
+      </c>
+      <c r="C481" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="D481" t="n">
+        <v>181.1</v>
+      </c>
+      <c r="E481" t="n">
+        <v>182.05</v>
+      </c>
+      <c r="F481" t="n">
+        <v>99413</v>
+      </c>
+      <c r="G481" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
